--- a/mySheetName.xlsx
+++ b/mySheetName.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="jsonWorkSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,36 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>key</v>
-      </c>
-      <c r="C1" t="str">
-        <v>value</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>111</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="str">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A2"/>
   </ignoredErrors>
 </worksheet>
 </file>